--- a/documentos/backlogPI.xlsx
+++ b/documentos/backlogPI.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/alex_barreira_bandtec_com_br/Documents/ALEX -BANTEC/0 - ACADÊMICO/2. GRADUAÇÃO BANDTEC GF/2021 1/ANALISE DE SISTEMAS/Aulas/Aula 03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurih\Desktop\Grupo 8\CrasDefault-Grupo8\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{018D9CC0-7758-4D0F-9681-D80C76FF0298}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA970665-5F5C-44D3-AB41-1946922C6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
-    <sheet name="Dados" sheetId="14" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="16" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -93,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>Product BackLog Classified (PBC)</t>
   </si>
@@ -122,181 +120,97 @@
     <t>Planejada</t>
   </si>
   <si>
-    <t>US#01&lt;Monitoramento&gt;</t>
-  </si>
-  <si>
     <t>O sistema deve ter dashboard para monitoramento</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>US #01.1 &lt;Monitoramento&gt;</t>
-  </si>
-  <si>
     <t>Criar uma API de monitoramento para enviar dados para dashboard</t>
   </si>
   <si>
-    <t>US#02&lt;Agendamento&gt;</t>
-  </si>
-  <si>
-    <t>Desenvolver a API para fazer o agentamento</t>
-  </si>
-  <si>
-    <t>US#02.1&lt;Agendamento&gt;</t>
-  </si>
-  <si>
     <t>O sistema deve mostrar uma tela de agendamento para o cliente</t>
   </si>
   <si>
-    <t>US#02.2&lt;Agendamento&gt;</t>
-  </si>
-  <si>
-    <t>O sistema deve utilizar a API de agendamento para fazer o auto agendamento da manutenção de acordo com o nível de consumo do caixa</t>
-  </si>
-  <si>
-    <t>US#01.2&lt;Monitoramento&gt;</t>
-  </si>
-  <si>
     <t>A API mede o consumo de processamento do caixa</t>
   </si>
   <si>
-    <t>US#01.3&lt;Monitoramento&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desenvolver aplicação web para o cliente poder fazer a manipulação do dados </t>
   </si>
   <si>
-    <t>US #01.4 &lt;Acesso&gt;</t>
-  </si>
-  <si>
     <t>Deve conter um sistema de gestão e criação do acesso</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Cancelado</t>
-  </si>
-  <si>
-    <t>João</t>
-  </si>
-  <si>
-    <t>Feito</t>
-  </si>
-  <si>
-    <t>Joana</t>
-  </si>
-  <si>
-    <t>Congelada</t>
-  </si>
-  <si>
-    <t>Joaquim</t>
-  </si>
-  <si>
-    <t>Em Andamento</t>
-  </si>
-  <si>
-    <t>Joaquina</t>
-  </si>
-  <si>
-    <t>José</t>
-  </si>
-  <si>
-    <t>EXEMPLOS</t>
-  </si>
-  <si>
-    <t>Josefina</t>
-  </si>
-  <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>∞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artefato (ferramenta) </t>
-  </si>
-  <si>
-    <t>sigla</t>
-  </si>
-  <si>
-    <t>BPMN</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTOTIPO DE TELA </t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>USER STORIES</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>CANVAS</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>STORIE BOARD</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>MAPA DE EMPATIA</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>DESENHO DE ARQUITETURA</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>JORNADA DO USUÁRIO</t>
-  </si>
-  <si>
-    <t>JU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DER </t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>USE CASE</t>
-  </si>
-  <si>
-    <t>UC</t>
-  </si>
-  <si>
-    <t>ENTREVISTA DE CAMPO</t>
-  </si>
-  <si>
-    <t>EC</t>
+    <t>Desenvolver a API para fazer o agendamento</t>
+  </si>
+  <si>
+    <t>Desenvolver uma API capaz de checar se o caixa eletrônico está ativo ou inativo</t>
+  </si>
+  <si>
+    <t>US#4.1&lt;Status&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alertar ao usuário referente a informação recebida pela API </t>
+  </si>
+  <si>
+    <t>US#1.1&lt;Monitoramento&gt;</t>
+  </si>
+  <si>
+    <t>US#1&lt;Monitoramento&gt;</t>
+  </si>
+  <si>
+    <t>US#2&lt;Agendamento&gt;</t>
+  </si>
+  <si>
+    <t>US#2.1&lt;Agendamento&gt;</t>
+  </si>
+  <si>
+    <t>US#2.2&lt;Agendamento&gt;</t>
+  </si>
+  <si>
+    <t>US#1.2&lt;Monitoramento&gt;</t>
+  </si>
+  <si>
+    <t>US#1.3&lt;Monitoramento&gt;</t>
+  </si>
+  <si>
+    <t>US#4&lt;Status&gt;</t>
+  </si>
+  <si>
+    <t>US#3&lt;Alertas&gt;</t>
+  </si>
+  <si>
+    <t>Criar API capaz de enviar alertas ao cliente</t>
+  </si>
+  <si>
+    <t>US#3.1&lt;Alertas&gt;</t>
+  </si>
+  <si>
+    <t>Enviar alertas dependendo do consumo do caixa</t>
+  </si>
+  <si>
+    <t>US#5&lt;Gráfico&gt;</t>
+  </si>
+  <si>
+    <t>Criar um interface gráfica consumindo os dados de monitoramento</t>
+  </si>
+  <si>
+    <t>US#5.1&lt;Gráfico&gt;</t>
+  </si>
+  <si>
+    <t>US#1.4&lt;Acesso&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar gráfico de maneira responsiva </t>
+  </si>
+  <si>
+    <t>US#6</t>
+  </si>
+  <si>
+    <t>Acessar e gerar relatórios com as informações geradas pela API de monitoramento</t>
+  </si>
+  <si>
+    <t>O sistema deve utilizar a API de agendamento para  o auto agendamento da manutenção de acordo com o nível de consumo do caixa</t>
   </si>
 </sst>
 </file>
@@ -306,23 +220,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -345,31 +246,10 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -435,7 +315,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,24 +334,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -483,21 +345,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -574,213 +421,222 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="21" builtinId="8"/>
+    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
@@ -1164,176 +1020,6 @@
             <a:rPr lang="pt-BR" sz="1100"/>
             <a:t>Backlog Classificado do Produto</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>204106</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>557893</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5F3F0D-B1AC-48AD-ACB7-3662D7052EE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10178143" y="1605642"/>
-          <a:ext cx="4884964" cy="1415143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1800"/>
-            <a:t>US</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>#001</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>E como cliente quero algo para fazer alguma coisa </a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100693</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>639536</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>272143</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CaixaDeTexto 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B829DE67-3AE9-4551-B565-B3DC2305A4C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10263868" y="3339193"/>
-          <a:ext cx="4880882" cy="1341664"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1800"/>
-            <a:t>US</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>#002</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>E como cliente quero Relatórios para ver os resultados das vendas  </a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1666,433 +1352,435 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="160.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="15" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="13" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="13"/>
-    <col min="11" max="11" width="13.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="13"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="171.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" customHeight="1"/>
     <row r="2" spans="2:11" ht="89.25" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="2:11" ht="9.9499999999999993" customHeight="1">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="2:11" s="17" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B4" s="23" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="2:11" s="5" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:11" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35" t="s">
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="2:11" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B6" s="24" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="2:11" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B7" s="24" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="2:11" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B8" s="24" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="37" t="s">
+      <c r="C13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="2:11" s="18" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B9" s="24" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B10" s="24" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="2:11" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B11" s="24" t="s">
+      <c r="C15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="2:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="2:11" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B12" s="24" t="s">
+      <c r="C16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="2:11" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B13" s="24" t="s">
+      <c r="C17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="2:11" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B14" s="24" t="s">
+      <c r="C18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B19" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="2:11" s="18" customFormat="1" ht="15">
-      <c r="B15" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="35"/>
-    </row>
-    <row r="16" spans="2:11" s="18" customFormat="1" ht="15">
-      <c r="B16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="35"/>
-    </row>
-    <row r="17" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B17" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B18" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-    </row>
-    <row r="19" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B19" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-    </row>
-    <row r="20" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B21" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="2:8" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C32" s="20"/>
-      <c r="E32" s="21"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="3:7" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="3:7" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="3:7" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="3:7" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="3:7" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="3:7" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="C19" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="3:7" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="3:7" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="3:7" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="3:7" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="3:7" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="3:7" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="G38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:B21">
     <cfRule type="expression" dxfId="21" priority="43">
       <formula>$B5="Done!"</formula>
@@ -2178,16 +1866,16 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
-            <xm:f>Dados!$A$2:$A$6</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B5:B21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
-            <xm:f>Dados!$A$14:$A$14</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E21</xm:sqref>
         </x14:dataValidation>
@@ -2195,231 +1883,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="68.25" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="23.25">
-      <c r="A17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="23.25">
-      <c r="A18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="23.25">
-      <c r="A19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="23.25">
-      <c r="A20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="23.25">
-      <c r="A21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="23.25">
-      <c r="A22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="23.25">
-      <c r="A23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="23.25">
-      <c r="A24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="23.25">
-      <c r="A25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="23.25">
-      <c r="A26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="23.25">
-      <c r="A27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94976FE-4B40-493B-8530-5823F3478496}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>